--- a/spec/fixtures/valid_customer_import.xlsx
+++ b/spec/fixtures/valid_customer_import.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Billing State</t>
   </si>
   <si>
-    <t>Billing Zip Code</t>
-  </si>
-  <si>
     <t>Primary Shipping Street</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Primary Shipping State</t>
   </si>
   <si>
-    <t>Primary Shipping Zip Code</t>
-  </si>
-  <si>
     <t>Secondary Shipping Street</t>
   </si>
   <si>
@@ -60,15 +54,9 @@
     <t>Secondary Shipping State</t>
   </si>
   <si>
-    <t>Secondary Shipping Zip Code</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t>123 Fake St 1</t>
   </si>
   <si>
@@ -84,9 +72,6 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
     <t>34553 Fake St 1</t>
   </si>
   <si>
@@ -106,16 +91,43 @@
   </si>
   <si>
     <t>444 Fake Way</t>
+  </si>
+  <si>
+    <t>Billing Zipcode</t>
+  </si>
+  <si>
+    <t>Primary Shipping Zipcode</t>
+  </si>
+  <si>
+    <t>Secondary Shipping Zipcode</t>
+  </si>
+  <si>
+    <t>bob@dev.null</t>
+  </si>
+  <si>
+    <t>alice@dev.null</t>
+  </si>
+  <si>
+    <t>john@dev.null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
@@ -139,13 +151,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -478,7 +493,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -500,72 +515,72 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>27701</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2">
         <v>27701</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N2">
         <v>27701</v>
@@ -573,43 +588,43 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>27702</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>27702</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>27702</v>
@@ -617,37 +632,42 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>27613</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J4">
         <v>27613</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
